--- a/Industrials/VRT.xlsx
+++ b/Industrials/VRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67A3EB-42DF-CC4A-81B7-1D96AD31DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA77AE7-C963-CA41-B33C-24DAEC4313C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,13 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>116.41</v>
-    <v>36.4</v>
-    <v>1.597</v>
-    <v>-1.38</v>
-    <v>-1.2123E-2</v>
-    <v>-1.81</v>
-    <v>-1.6095999999999999E-2</v>
+    <v>124.855</v>
+    <v>39.479999999999997</v>
+    <v>1.5993999999999999</v>
+    <v>1.74</v>
+    <v>1.4448000000000001E-2</v>
+    <v>0.63</v>
+    <v>5.1570000000000001E-3</v>
     <v>USD</v>
     <v>Vertiv Holdings Co. offers digital infrastructure technologies and deployable customized solutions to meet the specific business requirements and needs of a diverse group of customers. Its range of offerings includes alternate current and direct current power management products, switchgear and busbar products, thermal management products, integrated rack systems, modular solutions, and management systems for monitoring and controlling digital infrastructure. These comprehensive offerings are integral to the technologies used for services, such as e-commerce, online banking, file sharing, video on-demand, energy storage, wireless communications, Internet of Things and online gaming. In addition, through its global services network, the Company provides lifecycle management services, predictive analytics and professional services for deploying, maintaining and optimizing these products and their related systems. Its brands include Vertiv, Liebert, NetSure, Geist, Energy Labs and others.</v>
     <v>27000</v>
@@ -1954,25 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>505 N. Cleveland Ave., WESTERVILLE, OH, 43082 US</v>
-    <v>114.12990000000001</v>
+    <v>124.855</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45595.99958834453</v>
+    <v>45604.040512245316</v>
     <v>0</v>
-    <v>110.6109</v>
-    <v>42206533200</v>
+    <v>120.94</v>
+    <v>45854799120</v>
     <v>Vertiv Holdings Co</v>
     <v>Vertiv Holdings Co</v>
-    <v>113.31</v>
-    <v>75.046199999999999</v>
-    <v>113.83</v>
-    <v>112.45</v>
-    <v>110.64</v>
+    <v>122.89</v>
+    <v>81.533100000000005</v>
+    <v>120.43</v>
+    <v>122.17</v>
+    <v>122.8</v>
     <v>375336000</v>
     <v>VRT</v>
     <v>Vertiv Holdings Co (XNYS:VRT)</v>
-    <v>3529513</v>
-    <v>6837414</v>
+    <v>7696650</v>
+    <v>6461870</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2137,9 +2137,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2866,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>112.45</v>
+        <v>122.17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>5.3965647871116227</v>
+        <v>5.863035304948216</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.2123E-2</v>
+        <v>1.4448000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>40.583205</v>
+        <v>44.091152999999998</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>42206533200</v>
+        <v>45854799120</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.3479777296657948E-2</v>
+        <v>2.1611696464018879E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.597</v>
+        <v>1.5993999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.56467724380496653</v>
+        <v>-0.59931207387958163</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Industrials/VRT.xlsx
+++ b/Industrials/VRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA77AE7-C963-CA41-B33C-24DAEC4313C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E0AD2-C559-324B-B788-65F811ABA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
